--- a/assignments/assign-1/1.2/1.2b/minard-data.xlsx
+++ b/assignments/assign-1/1.2/1.2b/minard-data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10209"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\John\OneDrive\Documents\temp\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/christopherlynch/workspace/github.com/ChrisLynch96/data-visualisation/assignments/assign-1/1.2/1.2b/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="18" documentId="3A57A8EFE65877208436E760E7B06BE6C4106F91" xr6:coauthVersionLast="26" xr6:coauthVersionMax="26" xr10:uidLastSave="{180254ED-86E6-4D20-A228-5938E211E1D8}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80794D2D-76DF-BD4A-AB8F-5B6020861461}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="17840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-12300" yWindow="-28800" windowWidth="51200" windowHeight="28800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="38">
   <si>
     <t>Kowno</t>
   </si>
@@ -459,26 +459,26 @@
   <dimension ref="A1:M49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="P15" sqref="P15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="5.81640625" customWidth="1"/>
-    <col min="2" max="2" width="5.36328125" customWidth="1"/>
-    <col min="3" max="3" width="13.453125" customWidth="1"/>
-    <col min="4" max="4" width="5.36328125" customWidth="1"/>
-    <col min="5" max="5" width="5.1796875" customWidth="1"/>
-    <col min="6" max="6" width="5.36328125" customWidth="1"/>
-    <col min="7" max="7" width="5.90625" customWidth="1"/>
+    <col min="1" max="1" width="5.83203125" customWidth="1"/>
+    <col min="2" max="2" width="5.33203125" customWidth="1"/>
+    <col min="3" max="3" width="13.5" customWidth="1"/>
+    <col min="4" max="4" width="5.33203125" customWidth="1"/>
+    <col min="5" max="5" width="5.1640625" customWidth="1"/>
+    <col min="6" max="6" width="5.33203125" customWidth="1"/>
+    <col min="7" max="7" width="5.83203125" customWidth="1"/>
     <col min="8" max="8" width="5" customWidth="1"/>
-    <col min="9" max="9" width="5.1796875" customWidth="1"/>
+    <col min="9" max="9" width="5.1640625" customWidth="1"/>
     <col min="10" max="10" width="5" customWidth="1"/>
-    <col min="12" max="12" width="5.08984375" customWidth="1"/>
-    <col min="13" max="13" width="4.6328125" customWidth="1"/>
+    <col min="12" max="12" width="5.1640625" customWidth="1"/>
+    <col min="13" max="13" width="4.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>32</v>
       </c>
@@ -519,7 +519,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>24</v>
       </c>
@@ -560,7 +560,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>25.3</v>
       </c>
@@ -601,7 +601,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>26.4</v>
       </c>
@@ -642,7 +642,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>26.8</v>
       </c>
@@ -683,7 +683,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>27.7</v>
       </c>
@@ -702,6 +702,12 @@
       <c r="F6">
         <v>10</v>
       </c>
+      <c r="G6" t="s">
+        <v>5</v>
+      </c>
+      <c r="H6">
+        <v>24</v>
+      </c>
       <c r="I6">
         <v>27</v>
       </c>
@@ -718,7 +724,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>27.6</v>
       </c>
@@ -759,7 +765,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>28.5</v>
       </c>
@@ -800,7 +806,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>28.7</v>
       </c>
@@ -841,7 +847,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>29.2</v>
       </c>
@@ -882,7 +888,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>30.2</v>
       </c>
@@ -908,7 +914,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>30.4</v>
       </c>
@@ -934,7 +940,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>30.4</v>
       </c>
@@ -960,7 +966,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>32</v>
       </c>
@@ -986,7 +992,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>33.200000000000003</v>
       </c>
@@ -1012,7 +1018,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>34.299999999999997</v>
       </c>
@@ -1038,7 +1044,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>34.4</v>
       </c>
@@ -1064,7 +1070,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>36</v>
       </c>
@@ -1090,7 +1096,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>37.6</v>
       </c>
@@ -1116,7 +1122,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>36.6</v>
       </c>
@@ -1142,7 +1148,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>36.5</v>
       </c>
@@ -1168,7 +1174,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
       <c r="I22">
         <v>34.299999999999997</v>
       </c>
@@ -1185,7 +1191,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
       <c r="I23">
         <v>33.299999999999997</v>
       </c>
@@ -1202,7 +1208,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
       <c r="I24">
         <v>32</v>
       </c>
@@ -1219,7 +1225,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
       <c r="I25">
         <v>30.4</v>
       </c>
@@ -1236,7 +1242,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
       <c r="I26">
         <v>29.2</v>
       </c>
@@ -1253,7 +1259,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
       <c r="I27">
         <v>28.5</v>
       </c>
@@ -1270,7 +1276,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
       <c r="I28">
         <v>28.3</v>
       </c>
@@ -1287,7 +1293,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
       <c r="I29">
         <v>24</v>
       </c>
@@ -1304,7 +1310,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
       <c r="I30">
         <v>24.5</v>
       </c>
@@ -1321,7 +1327,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
       <c r="I31">
         <v>25.5</v>
       </c>
@@ -1338,7 +1344,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
       <c r="I32">
         <v>26.6</v>
       </c>
@@ -1355,7 +1361,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="33" spans="9:13" x14ac:dyDescent="0.35">
+    <row r="33" spans="9:13" x14ac:dyDescent="0.2">
       <c r="I33">
         <v>27.4</v>
       </c>
@@ -1372,7 +1378,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="34" spans="9:13" x14ac:dyDescent="0.35">
+    <row r="34" spans="9:13" x14ac:dyDescent="0.2">
       <c r="I34">
         <v>28.7</v>
       </c>
@@ -1389,7 +1395,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="35" spans="9:13" x14ac:dyDescent="0.35">
+    <row r="35" spans="9:13" x14ac:dyDescent="0.2">
       <c r="I35">
         <v>29.2</v>
       </c>
@@ -1406,7 +1412,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="36" spans="9:13" x14ac:dyDescent="0.35">
+    <row r="36" spans="9:13" x14ac:dyDescent="0.2">
       <c r="I36">
         <v>28.5</v>
       </c>
@@ -1423,7 +1429,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="37" spans="9:13" x14ac:dyDescent="0.35">
+    <row r="37" spans="9:13" x14ac:dyDescent="0.2">
       <c r="I37">
         <v>28.3</v>
       </c>
@@ -1440,7 +1446,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="38" spans="9:13" x14ac:dyDescent="0.35">
+    <row r="38" spans="9:13" x14ac:dyDescent="0.2">
       <c r="I38">
         <v>27.5</v>
       </c>
@@ -1457,7 +1463,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="39" spans="9:13" x14ac:dyDescent="0.35">
+    <row r="39" spans="9:13" x14ac:dyDescent="0.2">
       <c r="I39">
         <v>26.8</v>
       </c>
@@ -1474,7 +1480,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="40" spans="9:13" x14ac:dyDescent="0.35">
+    <row r="40" spans="9:13" x14ac:dyDescent="0.2">
       <c r="I40">
         <v>26.4</v>
       </c>
@@ -1491,7 +1497,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="41" spans="9:13" x14ac:dyDescent="0.35">
+    <row r="41" spans="9:13" x14ac:dyDescent="0.2">
       <c r="I41">
         <v>24.6</v>
       </c>
@@ -1508,7 +1514,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="42" spans="9:13" x14ac:dyDescent="0.35">
+    <row r="42" spans="9:13" x14ac:dyDescent="0.2">
       <c r="I42">
         <v>24.4</v>
       </c>
@@ -1525,7 +1531,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="43" spans="9:13" x14ac:dyDescent="0.35">
+    <row r="43" spans="9:13" x14ac:dyDescent="0.2">
       <c r="I43">
         <v>24.2</v>
       </c>
@@ -1542,7 +1548,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="44" spans="9:13" x14ac:dyDescent="0.35">
+    <row r="44" spans="9:13" x14ac:dyDescent="0.2">
       <c r="I44">
         <v>24.1</v>
       </c>
@@ -1559,7 +1565,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="45" spans="9:13" x14ac:dyDescent="0.35">
+    <row r="45" spans="9:13" x14ac:dyDescent="0.2">
       <c r="I45">
         <v>24</v>
       </c>
@@ -1576,7 +1582,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="46" spans="9:13" x14ac:dyDescent="0.35">
+    <row r="46" spans="9:13" x14ac:dyDescent="0.2">
       <c r="I46">
         <v>24.5</v>
       </c>
@@ -1593,7 +1599,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="47" spans="9:13" x14ac:dyDescent="0.35">
+    <row r="47" spans="9:13" x14ac:dyDescent="0.2">
       <c r="I47">
         <v>24.6</v>
       </c>
@@ -1610,7 +1616,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="48" spans="9:13" x14ac:dyDescent="0.35">
+    <row r="48" spans="9:13" x14ac:dyDescent="0.2">
       <c r="I48">
         <v>24.2</v>
       </c>
@@ -1627,7 +1633,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="49" spans="9:13" x14ac:dyDescent="0.35">
+    <row r="49" spans="9:13" x14ac:dyDescent="0.2">
       <c r="I49">
         <v>24.1</v>
       </c>
